--- a/apps-test.xlsx
+++ b/apps-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo.Alvarez.Seoa\Documents\Principal\deliverable\ApplicationCreation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo.Alvarez.Seoa\Documents\Playground\git\ApplicationCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB52AE-DE8A-4E63-A9F4-1C7920DD8F5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17354B-87B1-45EF-8AC5-269ECDB672F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{F5443F02-22E2-406C-8F7F-FA4EAAAAAF00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F5443F02-22E2-406C-8F7F-FA4EAAAAAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>AppName</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>myapplicaiton.com/mysite</t>
+  </si>
+  <si>
+    <t>myapplicaiton.com/mysite2</t>
   </si>
 </sst>
 </file>
@@ -393,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44D4B8A-F572-468E-8B1F-0CF1B87ADBAB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,12 +415,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/apps-test.xlsx
+++ b/apps-test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo.Alvarez.Seoa\Documents\Playground\git\ApplicationCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17354B-87B1-45EF-8AC5-269ECDB672F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F6F8B-A738-467F-9FC2-8F81A7107AB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F5443F02-22E2-406C-8F7F-FA4EAAAAAF00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationRules" sheetId="1" r:id="rId1"/>
+    <sheet name="SelectOptions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,34 +31,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>AppName</t>
   </si>
   <si>
-    <t>Rule</t>
-  </si>
-  <si>
     <t>My Application Name</t>
   </si>
   <si>
-    <t>myapplicaiton.com/mysite</t>
-  </si>
-  <si>
-    <t>myapplicaiton.com/mysite2</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>BEGINS_WITH</t>
+  </si>
+  <si>
+    <t>CONTAINS</t>
+  </si>
+  <si>
+    <t>ENDS_WITH</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>MATCHES</t>
+  </si>
+  <si>
+    <t>DOMAIN</t>
+  </si>
+  <si>
+    <t>applicationMatchTarget </t>
+  </si>
+  <si>
+    <t>applicationMatchType</t>
+  </si>
+  <si>
+    <t>applicationMatchTarget</t>
+  </si>
+  <si>
+    <t>myapplication.com/mysite</t>
+  </si>
+  <si>
+    <t>myapplication.com/mysite2</t>
+  </si>
+  <si>
+    <t>My Application Name2</t>
+  </si>
+  <si>
+    <t>myapplication2.com/mysite</t>
+  </si>
+  <si>
+    <t>myapplication.com/mysite3</t>
+  </si>
+  <si>
+    <t>pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1419"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,47 +445,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44D4B8A-F572-468E-8B1F-0CF1B87ADBAB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -444,5 +563,86 @@
     <hyperlink ref="B28" r:id="rId1" display="https://nam02.safelinks.protection.outlook.com/?url=http%3A%2F%2Fwww.newdentalchoice.com&amp;data=02%7C01%7Crodrigo.alvarez.seoa%40dynatrace.com%7C055126eed83b4ee821fb08d709d8d2aa%7C70ebe3a35b30435d9d677716d74ca190%7C1%7C0%7C636988699183542492&amp;sdata=P8vcWDzEHgoAnTJ3O2WI3pLqg2h2oeogCvkOoFWGmH8%3D&amp;reserved=0" xr:uid="{8B302C81-C185-4E42-AC47-22870C8C0755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6555D162-55AC-4151-93FB-A11C0698F137}">
+          <x14:formula1>
+            <xm:f>SelectOptions!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8E4478E-4C77-48C4-A87C-8BEA34367354}">
+          <x14:formula1>
+            <xm:f>SelectOptions!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72605335-7F6C-4C6F-AD10-58613BEA10DF}">
+  <dimension ref="D1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14" xr:uid="{1362382D-CB63-444F-A50C-D5BD76B6400B}">
+      <formula1>$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>